--- a/biology/Neurosciences/John_O'Keefe/John_O'Keefe.xlsx
+++ b/biology/Neurosciences/John_O'Keefe/John_O'Keefe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_O%27Keefe</t>
+          <t>John_O'Keefe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John O'Keefe (né le 18 novembre 1939 à New York) est un neuroscientifique et professeur américano-britannique à l'Institute of Cognitive Neuroscience et au département d'anatomie de l'University College London.
-Il étudie les cellules de lieu et le rythme thêta. Il est co-lauréat du prix Nobel de médecine 2014[1] avec May-Britt Moser et Edvard Moser[2].
+Il étudie les cellules de lieu et le rythme thêta. Il est co-lauréat du prix Nobel de médecine 2014 avec May-Britt Moser et Edvard Moser.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_O%27Keefe</t>
+          <t>John_O'Keefe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le 6 octobre 2014 John O'Keefe reçoit le Prix Nobel de médecine avec May-Britt et Edvard Mosel pour « leurs découvertes sur les cellules qui constituent un système de géo-position dans le cerveau[3] », les cellules de lieu, les cellules de grille.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le 6 octobre 2014 John O'Keefe reçoit le Prix Nobel de médecine avec May-Britt et Edvard Mosel pour « leurs découvertes sur les cellules qui constituent un système de géo-position dans le cerveau », les cellules de lieu, les cellules de grille.
 Prix Louisa Gross Horwitz en 2013.</t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John_O%27Keefe</t>
+          <t>John_O'Keefe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Écrit avec N. Burgess, K. J. Jeffery The hippocampal and parietal foundations of spatial cognition, Oxford University Press, 1998
 Écrit avec P. Andersen, R. Morris, D. Amaral, T. Bliss The Hippocampus Book, Oxford University Press, 2007
